--- a/Sistemas de controle/Lab8/Motor8.xlsx
+++ b/Sistemas de controle/Lab8/Motor8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Users\20.00387-0\Desktop\TrabalhosEmGrupo\Sistemas de controle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Users\20.01305-0\Desktop\TrabalhosEmGrupo\Sistemas de controle\Lab8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791C9DF1-441E-4F14-BA25-A8F9066E3F9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C619D313-24B0-45E7-BEC1-8900AB68C1BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{0C5E43A9-69E9-4107-B331-DA0FB25A7749}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Po</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Ymax e Tmax, sujeitos a erro</t>
+  </si>
+  <si>
+    <t>onda</t>
+  </si>
+  <si>
+    <t>degrau</t>
   </si>
 </sst>
 </file>
@@ -89,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -153,37 +159,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -503,30 +509,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC908D5-76DC-4949-82E8-7D8A1B13C494}">
-  <dimension ref="B3:M14"/>
+  <dimension ref="A3:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -547,11 +556,14 @@
         <f>(LN(F4/100)/-PI())^2</f>
         <v>8.5068121395605767E-2</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -561,12 +573,13 @@
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <f>C6-C7</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -576,12 +589,18 @@
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <f>SQRT(I4/(1+I4))</f>
         <v>0.27999799333504155</v>
       </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -591,66 +610,62 @@
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <f>PI()/(F5*SQRT(1+F6^2))</f>
         <v>12.100969064827463</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <f>F7^2</f>
         <v>146.43345230791127</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14">
+      <c r="I10" s="11"/>
+      <c r="J10" s="12">
         <f>F10</f>
         <v>146.43345230791127</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="15" t="s">
+      <c r="K10" s="11"/>
+      <c r="L10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <f>ROUND(F6*F7*2,3)</f>
         <v>6.7759999999999998</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="11" t="str">
+      <c r="J11" s="9" t="str">
         <f>F11 &amp; "s"</f>
         <v>6,776s</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="10">
         <f>F10</f>
         <v>146.43345230791127</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="18"/>
+      <c r="M11" s="14" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="L10:L11"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
